--- a/src/test/resources/template/export_with_image.xlsx
+++ b/src/test/resources/template/export_with_image.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowHeight="15720"/>
+    <workbookView windowHeight="15760"/>
   </bookViews>
   <sheets>
     <sheet name="院校学生信息录入" sheetId="1" r:id="rId1"/>
@@ -10516,7 +10516,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -10563,6 +10563,28 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -10688,7 +10710,7 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -10700,34 +10722,34 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -10814,7 +10836,7 @@
     <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -10829,7 +10851,7 @@
     <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -10877,13 +10899,13 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -10904,10 +10926,10 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -10916,7 +10938,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -10937,14 +10959,14 @@
     <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="78" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -10999,7 +11021,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="93">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -11378,31 +11406,39 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="1" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="44.0535714285714" style="18" customWidth="1"/>
     <col min="2" max="16384" width="9.14285714285714" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:6">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" ht="164" customHeight="1" spans="1:1">
-      <c r="A2" s="19" t="s">
+    <row r="2" ht="236" customHeight="1" spans="1:6">
+      <c r="A2" s="25" t="s">
         <v>1</v>
       </c>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:F2"/>
+  </mergeCells>
   <conditionalFormatting sqref="A2">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>AND(A2&lt;&gt;"",IsValidSFZ(A2)=FALSE)</formula>

--- a/src/test/resources/template/export_with_image.xlsx
+++ b/src/test/resources/template/export_with_image.xlsx
@@ -11416,7 +11416,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="1" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="44.0535714285714" style="18" customWidth="1"/>
+    <col min="1" max="1" width="13.8303571428571" style="18" customWidth="1"/>
     <col min="2" max="16384" width="9.14285714285714" style="18"/>
   </cols>
   <sheetData>
